--- a/資料庫結構.xlsx
+++ b/資料庫結構.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\電子商務班\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\岱資料\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68070334-310D-4888-9565-9968B494FAF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4605"/>
+    <workbookView xWindow="5460" yWindow="1590" windowWidth="18000" windowHeight="10290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="85">
   <si>
     <t>編號</t>
   </si>
@@ -281,13 +282,69 @@
   </si>
   <si>
     <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房間資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會員資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>機車資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>機車編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>機車型號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>機車價錢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>機車簡介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>機車數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_disc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -715,11 +772,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -740,60 +797,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="2">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2">
         <v>10</v>
@@ -801,81 +840,85 @@
       <c r="E3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>4</v>
+      <c r="A5" s="2">
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D5" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="2">
+        <v>50</v>
+      </c>
       <c r="E6" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>22</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
@@ -883,395 +926,369 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="2">
-        <v>50</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="2">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>57</v>
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="D10" s="2">
+        <v>12</v>
+      </c>
       <c r="E10" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="2">
-        <v>50</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D12" s="2">
-        <v>11</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="2">
+        <v>11</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="8" t="s">
-        <v>16</v>
+      <c r="G13" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-    </row>
     <row r="16" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+    <row r="19" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>1</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D19" s="2">
         <v>10</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="9" t="s">
+      <c r="E19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+    <row r="20" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>2</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D20" s="2">
         <v>50</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="9" t="s">
+      <c r="E20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+    <row r="21" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G23" s="5" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>1</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="2">
-        <v>10</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>1</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="2">
-        <v>10</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="2">
-        <v>10</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="D24" s="2">
+        <v>10</v>
+      </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="G24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="8" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="D25" s="2">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D26" s="2">
         <v>10</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
-        <v>35</v>
+      <c r="G26" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="2">
-        <v>10</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="4" t="s">
-        <v>36</v>
+      <c r="G27" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>54</v>
@@ -1279,109 +1296,327 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="2" t="s">
-        <v>37</v>
+      <c r="G28" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+      <c r="A29" s="2">
+        <v>6</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="2">
+        <v>10</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D30" s="2">
-        <v>50</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="9" t="s">
-        <v>26</v>
+      <c r="G30" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
+        <v>8</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="E34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>1</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="2">
+        <v>50</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>2</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D36" s="2">
         <v>10</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="9" t="s">
+      <c r="E36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+    <row r="37" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>3</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="2">
+        <v>10</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>4</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="B38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="2">
+        <v>50</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>1</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="2">
         <v>10</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="E41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>2</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="2">
+        <v>50</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>3</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="2">
+        <v>10</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>4</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="2">
+        <v>10</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
         <v>5</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D45" s="2">
         <v>50</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2" t="s">
-        <v>30</v>
+      <c r="E45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="H1:H1048576"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A16:G16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/資料庫結構.xlsx
+++ b/資料庫結構.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\岱資料\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\岱資料\Desktop\ican\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68070334-310D-4888-9565-9968B494FAF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124C6B13-2AD5-40E7-97A9-EBA020804909}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="1590" windowWidth="18000" windowHeight="10290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="3900" windowWidth="18000" windowHeight="10290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="101">
   <si>
     <t>編號</t>
   </si>
@@ -338,6 +338,70 @@
   </si>
   <si>
     <t>s_disc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留言表資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guestID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guestname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guestgender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guestphone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guestmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guestcontent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留言內容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留言時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1611,6 +1675,179 @@
         <v>78</v>
       </c>
     </row>
+    <row r="46" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>1</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="2">
+        <v>11</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>2</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="2">
+        <v>25</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>3</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>4</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="2">
+        <v>15</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>5</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="2">
+        <v>30</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>6</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>7</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="H1:H1048576"/>

--- a/資料庫結構.xlsx
+++ b/資料庫結構.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\岱資料\Desktop\ican\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124C6B13-2AD5-40E7-97A9-EBA020804909}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="3900" windowWidth="18000" windowHeight="10290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="3900" windowWidth="18000" windowHeight="10290"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="102">
   <si>
     <t>編號</t>
   </si>
@@ -402,14 +396,18 @@
   </si>
   <si>
     <t>留言時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房間型號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -459,6 +457,40 @@
       <charset val="136"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -480,7 +512,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -514,13 +546,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -555,6 +622,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -617,7 +708,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -652,7 +743,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -829,21 +920,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="16.25" style="1" customWidth="1"/>
@@ -860,12 +951,18 @@
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A1" s="18" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -888,7 +985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="17.25" thickBot="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -911,7 +1008,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="17.25" thickBot="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -932,7 +1029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="17.25" thickBot="1">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -953,7 +1050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="17.25" thickBot="1">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -974,7 +1071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="17.25" thickBot="1">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -993,7 +1090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="17.25" thickBot="1">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1012,7 +1109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="17.25" thickBot="1">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -1033,7 +1130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="17.25" thickBot="1">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1054,7 +1151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="17.25" thickBot="1">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1073,7 +1170,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="17.25" thickBot="1">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1094,7 +1191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="17.25" thickBot="1">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -1113,7 +1210,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="17.25" thickBot="1">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -1130,7 +1227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="17.25" thickBot="1">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -1149,7 +1246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="17.25" thickBot="1">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1158,12 +1255,18 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A17" s="16" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" ht="17.25" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>0</v>
       </c>
@@ -1186,7 +1289,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="17.25" thickBot="1">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -1203,11 +1306,11 @@
         <v>49</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="17.25" thickBot="1">
       <c r="A20" s="2">
         <v>2</v>
       </c>
@@ -1224,11 +1327,11 @@
         <v>49</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="17.25" thickBot="1">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -1237,12 +1340,18 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A22" s="16" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="1:7" ht="17.25" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>0</v>
       </c>
@@ -1265,7 +1374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="17.25" thickBot="1">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -1286,7 +1395,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="17.25" thickBot="1">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -1309,7 +1418,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="17.25" thickBot="1">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -1330,7 +1439,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="17.25" thickBot="1">
       <c r="A27" s="2">
         <v>2</v>
       </c>
@@ -1347,7 +1456,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="17.25" thickBot="1">
       <c r="A28" s="2">
         <v>5</v>
       </c>
@@ -1364,7 +1473,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="17.25" thickBot="1">
       <c r="A29" s="2">
         <v>6</v>
       </c>
@@ -1383,7 +1492,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="17.25" thickBot="1">
       <c r="A30" s="2">
         <v>7</v>
       </c>
@@ -1402,7 +1511,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="17.25" thickBot="1">
       <c r="A31" s="2">
         <v>8</v>
       </c>
@@ -1419,7 +1528,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="17.25" thickBot="1">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -1428,12 +1537,18 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A33" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="1:7" ht="17.25" thickBot="1">
       <c r="A34" s="5" t="s">
         <v>0</v>
       </c>
@@ -1456,7 +1571,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="17.25" thickBot="1">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -1473,11 +1588,11 @@
         <v>49</v>
       </c>
       <c r="F35" s="2"/>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="17.25" thickBot="1">
       <c r="A36" s="2">
         <v>2</v>
       </c>
@@ -1494,11 +1609,11 @@
         <v>49</v>
       </c>
       <c r="F36" s="2"/>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="17.25" thickBot="1">
       <c r="A37" s="2">
         <v>3</v>
       </c>
@@ -1515,11 +1630,11 @@
         <v>49</v>
       </c>
       <c r="F37" s="2"/>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="17.25" thickBot="1">
       <c r="A38" s="2">
         <v>4</v>
       </c>
@@ -1540,105 +1655,99 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A40" s="12" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="14"/>
+    </row>
+    <row r="41" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A41" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B41" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E41" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F41" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G41" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+    <row r="42" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A42" s="2">
         <v>1</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D42" s="2">
         <v>10</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F41" s="2" t="s">
+      <c r="E42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+    <row r="43" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A43" s="2">
         <v>2</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D43" s="2">
         <v>50</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="9" t="s">
+      <c r="E43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+    <row r="44" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A44" s="2">
         <v>3</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43" s="2">
-        <v>10</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>4</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>45</v>
@@ -1650,210 +1759,257 @@
         <v>49</v>
       </c>
       <c r="F44" s="2"/>
-      <c r="G44" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G44" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="17.25" thickBot="1">
       <c r="A45" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D45" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A46" s="2">
+        <v>5</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="2">
+        <v>50</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+    </row>
+    <row r="48" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A48" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+    <row r="49" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A49" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B49" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E49" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F49" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G49" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+    <row r="50" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A50" s="2">
         <v>1</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D50" s="2">
         <v>11</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F48" s="2" t="s">
+      <c r="E50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+    <row r="51" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A51" s="2">
         <v>2</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D51" s="2">
         <v>25</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
-        <v>3</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="2">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
-        <v>4</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51" s="2">
-        <v>15</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="17.25" thickBot="1">
       <c r="A52" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A53" s="2">
+        <v>4</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="2">
+        <v>15</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A54" s="2">
+        <v>5</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="2">
         <v>30</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>6</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
-        <v>7</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A55" s="2">
+        <v>6</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A56" s="2">
+        <v>7</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2" t="s">
         <v>100</v>
       </c>
     </row>
+    <row r="57" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="12">
     <mergeCell ref="H1:H1048576"/>
     <mergeCell ref="A32:G32"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/資料庫結構.xlsx
+++ b/資料庫結構.xlsx
@@ -920,7 +920,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -930,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1815,9 +1815,15 @@
       <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="15" t="s">
         <v>85</v>
       </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
     </row>
     <row r="49" spans="1:7" ht="17.25" thickBot="1">
       <c r="A49" s="5" t="s">
@@ -1997,7 +2003,7 @@
       <c r="G57" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="H1:H1048576"/>
     <mergeCell ref="A32:G32"/>
     <mergeCell ref="A21:G21"/>
@@ -2010,6 +2016,7 @@
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A48:G48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/資料庫結構.xlsx
+++ b/資料庫結構.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\電子商務班\Desktop\ican\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="2520" yWindow="3900" windowWidth="18000" windowHeight="10290"/>
   </bookViews>
@@ -359,47 +364,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留言內容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留言時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房間型號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>guestcontent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性別</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電話</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>留言內容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>留言時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房間型號</t>
+    <t>guesttime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,7 +412,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -920,7 +925,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -931,10 +936,10 @@
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="16.25" style="1" customWidth="1"/>
@@ -951,7 +956,7 @@
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" thickBot="1">
+    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>73</v>
       </c>
@@ -962,7 +967,7 @@
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
     </row>
-    <row r="2" spans="1:7" ht="17.25" thickBot="1">
+    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -985,7 +990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.25" thickBot="1">
+    <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1008,7 +1013,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.25" thickBot="1">
+    <row r="4" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1029,7 +1034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.25" thickBot="1">
+    <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1050,7 +1055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.25" thickBot="1">
+    <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1071,7 +1076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.25" thickBot="1">
+    <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1090,7 +1095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.25" thickBot="1">
+    <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1109,7 +1114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.25" thickBot="1">
+    <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -1130,7 +1135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.25" thickBot="1">
+    <row r="10" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1151,7 +1156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.25" thickBot="1">
+    <row r="11" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1170,7 +1175,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.25" thickBot="1">
+    <row r="12" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1191,7 +1196,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.25" thickBot="1">
+    <row r="13" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -1210,7 +1215,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.25" thickBot="1">
+    <row r="14" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -1227,7 +1232,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17.25" thickBot="1">
+    <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -1246,7 +1251,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17.25" thickBot="1">
+    <row r="16" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1255,7 +1260,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" ht="17.25" thickBot="1">
+    <row r="17" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>71</v>
       </c>
@@ -1266,7 +1271,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" ht="17.25" thickBot="1">
+    <row r="18" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>0</v>
       </c>
@@ -1289,7 +1294,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17.25" thickBot="1">
+    <row r="19" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -1310,7 +1315,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17.25" thickBot="1">
+    <row r="20" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>2</v>
       </c>
@@ -1331,7 +1336,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="17.25" thickBot="1">
+    <row r="21" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -1340,7 +1345,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7" ht="17.25" thickBot="1">
+    <row r="22" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>72</v>
       </c>
@@ -1351,7 +1356,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7" ht="17.25" thickBot="1">
+    <row r="23" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>0</v>
       </c>
@@ -1374,7 +1379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17.25" thickBot="1">
+    <row r="24" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -1395,7 +1400,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17.25" thickBot="1">
+    <row r="25" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -1418,7 +1423,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17.25" thickBot="1">
+    <row r="26" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -1439,7 +1444,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17.25" thickBot="1">
+    <row r="27" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>2</v>
       </c>
@@ -1456,7 +1461,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17.25" thickBot="1">
+    <row r="28" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>5</v>
       </c>
@@ -1473,7 +1478,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17.25" thickBot="1">
+    <row r="29" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>6</v>
       </c>
@@ -1492,7 +1497,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17.25" thickBot="1">
+    <row r="30" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>7</v>
       </c>
@@ -1511,7 +1516,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17.25" thickBot="1">
+    <row r="31" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>8</v>
       </c>
@@ -1528,7 +1533,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17.25" thickBot="1">
+    <row r="32" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -1537,9 +1542,9 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="1:7" ht="17.25" thickBot="1">
+    <row r="33" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -1548,7 +1553,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
     </row>
-    <row r="34" spans="1:7" ht="17.25" thickBot="1">
+    <row r="34" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>0</v>
       </c>
@@ -1571,7 +1576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="17.25" thickBot="1">
+    <row r="35" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -1592,7 +1597,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17.25" thickBot="1">
+    <row r="36" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>2</v>
       </c>
@@ -1613,7 +1618,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17.25" thickBot="1">
+    <row r="37" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>3</v>
       </c>
@@ -1634,7 +1639,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="17.25" thickBot="1">
+    <row r="38" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>4</v>
       </c>
@@ -1655,7 +1660,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="17.25" thickBot="1">
+    <row r="39" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -1664,7 +1669,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="1:7" ht="17.25" thickBot="1">
+    <row r="40" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>74</v>
       </c>
@@ -1675,7 +1680,7 @@
       <c r="F40" s="13"/>
       <c r="G40" s="14"/>
     </row>
-    <row r="41" spans="1:7" ht="17.25" thickBot="1">
+    <row r="41" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>0</v>
       </c>
@@ -1698,7 +1703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="17.25" thickBot="1">
+    <row r="42" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>1</v>
       </c>
@@ -1721,7 +1726,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="17.25" thickBot="1">
+    <row r="43" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>2</v>
       </c>
@@ -1742,7 +1747,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="17.25" thickBot="1">
+    <row r="44" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>3</v>
       </c>
@@ -1763,7 +1768,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="17.25" thickBot="1">
+    <row r="45" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>4</v>
       </c>
@@ -1784,7 +1789,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="17.25" thickBot="1">
+    <row r="46" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>5</v>
       </c>
@@ -1805,7 +1810,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="17.25" thickBot="1">
+    <row r="47" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -1814,7 +1819,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
     </row>
-    <row r="48" spans="1:7" ht="17.25" thickBot="1">
+    <row r="48" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>85</v>
       </c>
@@ -1825,7 +1830,7 @@
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
     </row>
-    <row r="49" spans="1:7" ht="17.25" thickBot="1">
+    <row r="49" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>0</v>
       </c>
@@ -1848,7 +1853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="17.25" thickBot="1">
+    <row r="50" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>1</v>
       </c>
@@ -1868,10 +1873,10 @@
         <v>50</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="17.25" thickBot="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>2</v>
       </c>
@@ -1889,10 +1894,10 @@
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="17.25" thickBot="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>3</v>
       </c>
@@ -1910,10 +1915,10 @@
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="17.25" thickBot="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>4</v>
       </c>
@@ -1931,10 +1936,10 @@
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="17.25" thickBot="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>5</v>
       </c>
@@ -1952,18 +1957,18 @@
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="17.25" thickBot="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>6</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
@@ -1971,18 +1976,18 @@
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="17.25" thickBot="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>7</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
@@ -1990,10 +1995,10 @@
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="17.25" thickBot="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>

--- a/資料庫結構.xlsx
+++ b/資料庫結構.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\電子商務班\Desktop\ican\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陳聖文\Desktop\ican\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076063E4-5B4A-4DB6-8DD0-4B8C220101E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="3900" windowWidth="18000" windowHeight="10290"/>
+    <workbookView xWindow="16770" yWindow="2220" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="104">
   <si>
     <t>編號</t>
   </si>
@@ -233,10 +234,6 @@
     <t>m_level</t>
   </si>
   <si>
-    <t>enum('男', '女','不公開')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enum('admin', 'member')</t>
   </si>
   <si>
@@ -280,10 +277,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>房間資料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -405,14 +398,30 @@
   </si>
   <si>
     <t>guesttime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum('男', '女')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_phone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -470,15 +479,6 @@
       <family val="1"/>
       <charset val="136"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -592,7 +592,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -632,25 +632,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -932,11 +926,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -957,15 +951,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="A1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1024,7 +1018,7 @@
         <v>46</v>
       </c>
       <c r="D4" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>49</v>
@@ -1066,7 +1060,7 @@
         <v>46</v>
       </c>
       <c r="D6" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>49</v>
@@ -1084,7 +1078,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
@@ -1107,7 +1101,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
@@ -1119,20 +1113,20 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1146,10 +1140,10 @@
         <v>46</v>
       </c>
       <c r="D10" s="2">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
@@ -1160,40 +1154,40 @@
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>57</v>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="D11" s="2">
+        <v>100</v>
+      </c>
       <c r="E11" s="2" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>48</v>
+      <c r="B12" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="2">
-        <v>50</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1201,7 +1195,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>53</v>
@@ -1212,7 +1206,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1226,10 +1220,12 @@
         <v>44</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1237,18 +1233,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1261,15 +1255,15 @@
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
+      <c r="A17" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
@@ -1346,15 +1340,15 @@
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
+      <c r="A22" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
@@ -1387,78 +1381,78 @@
         <v>38</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" s="2">
         <v>10</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="E24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="2">
-        <v>10</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D26" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="9" t="s">
-        <v>25</v>
+      <c r="G26" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="D27" s="2">
+        <v>12</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
-        <v>33</v>
+      <c r="G27" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1472,7 +1466,9 @@
         <v>54</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="8" t="s">
         <v>34</v>
@@ -1491,7 +1487,9 @@
       <c r="D29" s="2">
         <v>10</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
         <v>35</v>
@@ -1510,7 +1508,9 @@
       <c r="D30" s="2">
         <v>10</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="4" t="s">
         <v>36</v>
@@ -1527,7 +1527,9 @@
         <v>54</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
         <v>37</v>
@@ -1543,8 +1545,8 @@
       <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
-        <v>99</v>
+      <c r="A33" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -1581,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>46</v>
@@ -1590,7 +1592,7 @@
         <v>50</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
@@ -1623,10 +1625,10 @@
         <v>3</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" s="2">
         <v>10</v>
@@ -1636,7 +1638,7 @@
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1671,14 +1673,14 @@
     </row>
     <row r="40" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
-      <c r="G40" s="14"/>
+      <c r="G40" s="17"/>
     </row>
     <row r="41" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
@@ -1708,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>45</v>
@@ -1723,7 +1725,7 @@
         <v>50</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1731,7 +1733,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>46</v>
@@ -1744,7 +1746,7 @@
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1752,7 +1754,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>45</v>
@@ -1765,7 +1767,7 @@
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1773,7 +1775,7 @@
         <v>4</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>45</v>
@@ -1786,7 +1788,7 @@
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1794,7 +1796,7 @@
         <v>5</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>46</v>
@@ -1807,7 +1809,7 @@
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1820,8 +1822,8 @@
       <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
-        <v>85</v>
+      <c r="A48" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -1858,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>45</v>
@@ -1873,7 +1875,7 @@
         <v>50</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1881,7 +1883,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>46</v>
@@ -1890,11 +1892,11 @@
         <v>25</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1902,7 +1904,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>46</v>
@@ -1915,7 +1917,7 @@
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1923,7 +1925,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>45</v>
@@ -1936,7 +1938,7 @@
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1944,7 +1946,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>46</v>
@@ -1957,7 +1959,7 @@
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1965,10 +1967,10 @@
         <v>6</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
@@ -1976,7 +1978,7 @@
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1984,7 +1986,7 @@
         <v>7</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>54</v>
@@ -1995,7 +1997,7 @@
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
